--- a/Code/Results/Cases/Case_8_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_22/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013379915510088</v>
+        <v>1.010530697617542</v>
       </c>
       <c r="D2">
-        <v>1.033447100579387</v>
+        <v>1.030840455487689</v>
       </c>
       <c r="E2">
-        <v>1.028319918666385</v>
+        <v>1.025964820647791</v>
       </c>
       <c r="F2">
-        <v>1.040006988738057</v>
+        <v>1.037891926556001</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049851515938294</v>
+        <v>1.048752113815709</v>
       </c>
       <c r="J2">
-        <v>1.035167669799581</v>
+        <v>1.032400935555365</v>
       </c>
       <c r="K2">
-        <v>1.044459329869889</v>
+        <v>1.041886224698888</v>
       </c>
       <c r="L2">
-        <v>1.039398322253354</v>
+        <v>1.03707389811972</v>
       </c>
       <c r="M2">
-        <v>1.050935739909548</v>
+        <v>1.048847449113196</v>
       </c>
       <c r="N2">
-        <v>1.036637726626096</v>
+        <v>1.02776411063993</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048884564044009</v>
+        <v>1.047231838988099</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042506877109393</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040696218491571</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023140242970701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017080631482419</v>
+        <v>1.013921184691955</v>
       </c>
       <c r="D3">
-        <v>1.035864727209546</v>
+        <v>1.032981051036779</v>
       </c>
       <c r="E3">
-        <v>1.031148160313849</v>
+        <v>1.028531986067188</v>
       </c>
       <c r="F3">
-        <v>1.042624141375972</v>
+        <v>1.040280519901523</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050475782506306</v>
+        <v>1.049253664950708</v>
       </c>
       <c r="J3">
-        <v>1.037116249060212</v>
+        <v>1.034039406599292</v>
       </c>
       <c r="K3">
-        <v>1.046058390431966</v>
+        <v>1.043208632354983</v>
       </c>
       <c r="L3">
-        <v>1.041397422449316</v>
+        <v>1.038812360245993</v>
       </c>
       <c r="M3">
-        <v>1.052739208137268</v>
+        <v>1.050422694625013</v>
       </c>
       <c r="N3">
-        <v>1.038589073092774</v>
+        <v>1.028682754642077</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.050311870506013</v>
+        <v>1.048478527640902</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043634889135937</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041628338239037</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023398882099541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019436565327801</v>
+        <v>1.01608133682606</v>
       </c>
       <c r="D4">
-        <v>1.03740728305719</v>
+        <v>1.034348208840211</v>
       </c>
       <c r="E4">
-        <v>1.032954457217367</v>
+        <v>1.030173290866181</v>
       </c>
       <c r="F4">
-        <v>1.044295861595921</v>
+        <v>1.041807739136492</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050864216927049</v>
+        <v>1.049564300440961</v>
       </c>
       <c r="J4">
-        <v>1.038355818951563</v>
+        <v>1.035082437861998</v>
       </c>
       <c r="K4">
-        <v>1.047074262005568</v>
+        <v>1.044049028706386</v>
       </c>
       <c r="L4">
-        <v>1.042670777188154</v>
+        <v>1.039920694893513</v>
       </c>
       <c r="M4">
-        <v>1.053887526519459</v>
+        <v>1.051426466090876</v>
       </c>
       <c r="N4">
-        <v>1.039830403315552</v>
+        <v>1.029267549080662</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.05122067480729</v>
+        <v>1.049272936363212</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044354080022863</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042223539999743</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02356094422252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020421235078651</v>
+        <v>1.016984427901773</v>
       </c>
       <c r="D5">
-        <v>1.038054656666025</v>
+        <v>1.034922464909009</v>
       </c>
       <c r="E5">
-        <v>1.033711235477883</v>
+        <v>1.03086128168182</v>
       </c>
       <c r="F5">
-        <v>1.044996448774209</v>
+        <v>1.042448094829264</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051025754361816</v>
+        <v>1.049693371138945</v>
       </c>
       <c r="J5">
-        <v>1.038875106415256</v>
+        <v>1.035519656366415</v>
       </c>
       <c r="K5">
-        <v>1.04750086000416</v>
+        <v>1.044402407698622</v>
       </c>
       <c r="L5">
-        <v>1.043204292671627</v>
+        <v>1.040385345537553</v>
       </c>
       <c r="M5">
-        <v>1.05436875813365</v>
+        <v>1.051847390981405</v>
       </c>
       <c r="N5">
-        <v>1.040350428227006</v>
+        <v>1.029512682786484</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051601531711681</v>
+        <v>1.049606066126664</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044662842948156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042481253977623</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023628986412415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020589974655911</v>
+        <v>1.017139039284409</v>
       </c>
       <c r="D6">
-        <v>1.038167907583926</v>
+        <v>1.035023159527767</v>
       </c>
       <c r="E6">
-        <v>1.033841575153188</v>
+        <v>1.030979718203874</v>
       </c>
       <c r="F6">
-        <v>1.045117285895598</v>
+        <v>1.042558541319111</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051054989303525</v>
+        <v>1.049717015572284</v>
       </c>
       <c r="J6">
-        <v>1.038965845705567</v>
+        <v>1.03559618588653</v>
       </c>
       <c r="K6">
-        <v>1.047577029497092</v>
+        <v>1.044466002968139</v>
       </c>
       <c r="L6">
-        <v>1.04329715387112</v>
+        <v>1.040466290820886</v>
       </c>
       <c r="M6">
-        <v>1.054452768796582</v>
+        <v>1.05192099824911</v>
       </c>
       <c r="N6">
-        <v>1.040441296377516</v>
+        <v>1.02955559026535</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051668019512016</v>
+        <v>1.049664320617637</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044725390195126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042535792227611</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023641754184679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019460335626156</v>
+        <v>1.016123619049937</v>
       </c>
       <c r="D7">
-        <v>1.03742897640948</v>
+        <v>1.034382943474887</v>
       </c>
       <c r="E7">
-        <v>1.032974268302113</v>
+        <v>1.030208837575383</v>
       </c>
       <c r="F7">
-        <v>1.044314652398769</v>
+        <v>1.041839184657505</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050872645094042</v>
+        <v>1.049579219164025</v>
       </c>
       <c r="J7">
-        <v>1.038373098388302</v>
+        <v>1.035117740889025</v>
       </c>
       <c r="K7">
-        <v>1.047092859179454</v>
+        <v>1.044080509419181</v>
       </c>
       <c r="L7">
-        <v>1.0426874940831</v>
+        <v>1.039952959198595</v>
       </c>
       <c r="M7">
-        <v>1.05390328150224</v>
+        <v>1.051454727615303</v>
       </c>
       <c r="N7">
-        <v>1.039847707291072</v>
+        <v>1.029339393471323</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.051233143637823</v>
+        <v>1.04929530319664</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044387217373697</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04226781475877</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023570341203599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014652037758504</v>
+        <v>1.01176080008668</v>
       </c>
       <c r="D8">
-        <v>1.034284932146387</v>
+        <v>1.031629689085956</v>
       </c>
       <c r="E8">
-        <v>1.029292895611068</v>
+        <v>1.026903057160848</v>
       </c>
       <c r="F8">
-        <v>1.040907803393061</v>
+        <v>1.038758768113703</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050073541199896</v>
+        <v>1.048954999864379</v>
       </c>
       <c r="J8">
-        <v>1.035843587793551</v>
+        <v>1.033033261327127</v>
       </c>
       <c r="K8">
-        <v>1.045019686378428</v>
+        <v>1.042397605269153</v>
       </c>
       <c r="L8">
-        <v>1.040090173127425</v>
+        <v>1.037730535039473</v>
       </c>
       <c r="M8">
-        <v>1.051560760109431</v>
+        <v>1.049438124804317</v>
       </c>
       <c r="N8">
-        <v>1.037314604501138</v>
+        <v>1.028276438451884</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.049379219793954</v>
+        <v>1.04769931473309</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042925870813891</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04108287949933</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023248293147137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005853328599609</v>
+        <v>1.0037236627275</v>
       </c>
       <c r="D9">
-        <v>1.028551235035488</v>
+        <v>1.026570161010576</v>
       </c>
       <c r="E9">
-        <v>1.022601235665263</v>
+        <v>1.020850889483853</v>
       </c>
       <c r="F9">
-        <v>1.034716757004092</v>
+        <v>1.033126605503897</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048534622537554</v>
+        <v>1.047714652733486</v>
       </c>
       <c r="J9">
-        <v>1.031201070541188</v>
+        <v>1.029145610643281</v>
       </c>
       <c r="K9">
-        <v>1.041197470151548</v>
+        <v>1.039246378217314</v>
       </c>
       <c r="L9">
-        <v>1.035337965483724</v>
+        <v>1.033614496961644</v>
       </c>
       <c r="M9">
-        <v>1.047270615637212</v>
+        <v>1.045704154770149</v>
       </c>
       <c r="N9">
-        <v>1.032665494341772</v>
+        <v>1.026115842400399</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045983891473283</v>
+        <v>1.044744151017089</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040220178369735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038851328580874</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022618633984798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9998212446342496</v>
+        <v>0.9983197529435213</v>
       </c>
       <c r="D10">
-        <v>1.024661321868166</v>
+        <v>1.023216772677381</v>
       </c>
       <c r="E10">
-        <v>1.018070009497968</v>
+        <v>1.016846441027522</v>
       </c>
       <c r="F10">
-        <v>1.030557994131762</v>
+        <v>1.029423198665236</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047454575565095</v>
+        <v>1.04687504272623</v>
       </c>
       <c r="J10">
-        <v>1.028041956569799</v>
+        <v>1.026600194521004</v>
       </c>
       <c r="K10">
-        <v>1.038599141019299</v>
+        <v>1.037179122940978</v>
       </c>
       <c r="L10">
-        <v>1.032120493047719</v>
+        <v>1.03091804679369</v>
       </c>
       <c r="M10">
-        <v>1.044396596044991</v>
+        <v>1.043280780770266</v>
       </c>
       <c r="N10">
-        <v>1.029501894066189</v>
+        <v>1.024921128080757</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.04376042206719</v>
+        <v>1.042877386937161</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.038399751230688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037408092154809</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022207920633228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9976230529474862</v>
+        <v>0.9964649826536847</v>
       </c>
       <c r="D11">
-        <v>1.023390409646488</v>
+        <v>1.022220096988719</v>
       </c>
       <c r="E11">
-        <v>1.016602279136719</v>
+        <v>1.015667131551836</v>
       </c>
       <c r="F11">
-        <v>1.029462982344385</v>
+        <v>1.028573200961173</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047201710138312</v>
+        <v>1.046746680371632</v>
       </c>
       <c r="J11">
-        <v>1.027095051112636</v>
+        <v>1.025985565535901</v>
       </c>
       <c r="K11">
-        <v>1.037884298737918</v>
+        <v>1.036734797688356</v>
       </c>
       <c r="L11">
-        <v>1.031217748498402</v>
+        <v>1.030299515714511</v>
       </c>
       <c r="M11">
-        <v>1.043849867326074</v>
+        <v>1.042975662320265</v>
       </c>
       <c r="N11">
-        <v>1.028553643894665</v>
+        <v>1.02502013736498</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.043761315300467</v>
+        <v>1.043069829888031</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037927043905406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037129885923153</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022172217751424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9969713686792374</v>
+        <v>0.9959151724221363</v>
       </c>
       <c r="D12">
-        <v>1.023073603213461</v>
+        <v>1.021982217164452</v>
       </c>
       <c r="E12">
-        <v>1.016245795790383</v>
+        <v>1.015395272696724</v>
       </c>
       <c r="F12">
-        <v>1.02932159213925</v>
+        <v>1.028503951234726</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047190623885158</v>
+        <v>1.046769710954689</v>
       </c>
       <c r="J12">
-        <v>1.02690446101492</v>
+        <v>1.025893421272196</v>
       </c>
       <c r="K12">
-        <v>1.037771709572413</v>
+        <v>1.036700052028024</v>
       </c>
       <c r="L12">
-        <v>1.031068232965753</v>
+        <v>1.030233350054402</v>
       </c>
       <c r="M12">
-        <v>1.043907801395521</v>
+        <v>1.043104703512391</v>
       </c>
       <c r="N12">
-        <v>1.028362783137149</v>
+        <v>1.025161193825177</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.04413172723743</v>
+        <v>1.043496699460812</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037847440314595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03710532026319</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022200016980473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9974814185326908</v>
+        <v>0.9963241157726536</v>
       </c>
       <c r="D13">
-        <v>1.023487240068954</v>
+        <v>1.022311316888333</v>
       </c>
       <c r="E13">
-        <v>1.016734702609122</v>
+        <v>1.015797299828518</v>
       </c>
       <c r="F13">
-        <v>1.029924948355532</v>
+        <v>1.029034076975365</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047377841538486</v>
+        <v>1.046915191975537</v>
       </c>
       <c r="J13">
-        <v>1.027299740562041</v>
+        <v>1.026191671089029</v>
       </c>
       <c r="K13">
-        <v>1.038135311997573</v>
+        <v>1.036980554501325</v>
       </c>
       <c r="L13">
-        <v>1.031505182785115</v>
+        <v>1.030584940534052</v>
       </c>
       <c r="M13">
-        <v>1.044458257602676</v>
+        <v>1.04358315640677</v>
       </c>
       <c r="N13">
-        <v>1.028758624026566</v>
+        <v>1.025285832442176</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044842262069339</v>
+        <v>1.044150472003946</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038102034634556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037300913084363</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02228036361462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9983664018625406</v>
+        <v>0.9970491596760581</v>
       </c>
       <c r="D14">
-        <v>1.024109793584885</v>
+        <v>1.022802981215154</v>
       </c>
       <c r="E14">
-        <v>1.017461095777586</v>
+        <v>1.016387864232736</v>
       </c>
       <c r="F14">
-        <v>1.030686022857853</v>
+        <v>1.02968026667831</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047599310024494</v>
+        <v>1.047074623382843</v>
       </c>
       <c r="J14">
-        <v>1.027843050131586</v>
+        <v>1.026581044721161</v>
       </c>
       <c r="K14">
-        <v>1.038607312765161</v>
+        <v>1.037323731268848</v>
       </c>
       <c r="L14">
-        <v>1.032077613897575</v>
+        <v>1.031023780922919</v>
       </c>
       <c r="M14">
-        <v>1.045067796005384</v>
+        <v>1.044079617749722</v>
       </c>
       <c r="N14">
-        <v>1.029302705158019</v>
+        <v>1.02536898529371</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045496650917855</v>
+        <v>1.044715575278291</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038437170787768</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03754510202018</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022361920072046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9988397132744949</v>
+        <v>0.9974412860361801</v>
       </c>
       <c r="D15">
-        <v>1.024427407330949</v>
+        <v>1.023054722765816</v>
       </c>
       <c r="E15">
-        <v>1.017829228497795</v>
+        <v>1.016687450511845</v>
       </c>
       <c r="F15">
-        <v>1.031044933244247</v>
+        <v>1.029981121609796</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047700103618121</v>
+        <v>1.047144799471641</v>
       </c>
       <c r="J15">
-        <v>1.028109459727682</v>
+        <v>1.02676916348777</v>
       </c>
       <c r="K15">
-        <v>1.038833453345553</v>
+        <v>1.037484986802735</v>
       </c>
       <c r="L15">
-        <v>1.032352461238983</v>
+        <v>1.031231162346778</v>
       </c>
       <c r="M15">
-        <v>1.045335398167724</v>
+        <v>1.044290037296949</v>
       </c>
       <c r="N15">
-        <v>1.029569493086299</v>
+        <v>1.025394471024959</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045745548344533</v>
+        <v>1.04491929607867</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.038602904012831</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037665532704332</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022396209000807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001296060589529</v>
+        <v>0.9995141100797407</v>
       </c>
       <c r="D16">
-        <v>1.025999199784019</v>
+        <v>1.024316147889019</v>
       </c>
       <c r="E16">
-        <v>1.019656313885347</v>
+        <v>1.018192599359845</v>
       </c>
       <c r="F16">
-        <v>1.032711782232387</v>
+        <v>1.031374593795776</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048137951776634</v>
+        <v>1.047441399665858</v>
       </c>
       <c r="J16">
-        <v>1.029381729870108</v>
+        <v>1.027670172167811</v>
       </c>
       <c r="K16">
-        <v>1.039879031196095</v>
+        <v>1.038224389845815</v>
       </c>
       <c r="L16">
-        <v>1.033643847823907</v>
+        <v>1.03220523357336</v>
       </c>
       <c r="M16">
-        <v>1.046479488600728</v>
+        <v>1.045164486261468</v>
       </c>
       <c r="N16">
-        <v>1.030843569998258</v>
+        <v>1.025496010109761</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.046611284855593</v>
+        <v>1.045571878816758</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.039345311221755</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038191769913151</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022531937524798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002718242754398</v>
+        <v>1.000746795040671</v>
       </c>
       <c r="D17">
-        <v>1.026879917513832</v>
+        <v>1.025042497258518</v>
       </c>
       <c r="E17">
-        <v>1.020678576226624</v>
+        <v>1.019056500488793</v>
       </c>
       <c r="F17">
-        <v>1.03358893385034</v>
+        <v>1.032116613807452</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048355106288928</v>
+        <v>1.047589570119831</v>
       </c>
       <c r="J17">
-        <v>1.030072362182625</v>
+        <v>1.028176305235144</v>
       </c>
       <c r="K17">
-        <v>1.040432506207679</v>
+        <v>1.038625239975671</v>
       </c>
       <c r="L17">
-        <v>1.034333495895117</v>
+        <v>1.032738451480977</v>
       </c>
       <c r="M17">
-        <v>1.047032588629406</v>
+        <v>1.045584018865952</v>
       </c>
       <c r="N17">
-        <v>1.031535183087876</v>
+        <v>1.025592281176547</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.046920021888506</v>
+        <v>1.045774928044606</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039739211664166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038478011720061</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022596567196961</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003372574376756</v>
+        <v>1.001334894068104</v>
       </c>
       <c r="D18">
-        <v>1.027228980344957</v>
+        <v>1.025337786920098</v>
       </c>
       <c r="E18">
-        <v>1.021082524232581</v>
+        <v>1.019405739166696</v>
       </c>
       <c r="F18">
-        <v>1.033833777400802</v>
+        <v>1.032314129352808</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048393932456718</v>
+        <v>1.047605710423978</v>
       </c>
       <c r="J18">
-        <v>1.030308772609199</v>
+        <v>1.028347565396448</v>
       </c>
       <c r="K18">
-        <v>1.040593694709207</v>
+        <v>1.038733034747322</v>
       </c>
       <c r="L18">
-        <v>1.034547005168125</v>
+        <v>1.032897705546316</v>
       </c>
       <c r="M18">
-        <v>1.047092979196816</v>
+        <v>1.045597454517641</v>
       </c>
       <c r="N18">
-        <v>1.031771929244372</v>
+        <v>1.025606148680563</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.046731306252038</v>
+        <v>1.045548850280998</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039841594277736</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.03854149827741</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022593971409528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003348964657862</v>
+        <v>1.001337433339779</v>
       </c>
       <c r="D19">
-        <v>1.027117840950463</v>
+        <v>1.025250036892272</v>
       </c>
       <c r="E19">
-        <v>1.020940586145041</v>
+        <v>1.019286707582785</v>
       </c>
       <c r="F19">
-        <v>1.033519127767662</v>
+        <v>1.032018381977686</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048284191937557</v>
+        <v>1.04750842426934</v>
       </c>
       <c r="J19">
-        <v>1.030152155309204</v>
+        <v>1.028215676742454</v>
       </c>
       <c r="K19">
-        <v>1.040422220936161</v>
+        <v>1.038584419491145</v>
       </c>
       <c r="L19">
-        <v>1.034344729675955</v>
+        <v>1.032717825239468</v>
       </c>
       <c r="M19">
-        <v>1.046721736763385</v>
+        <v>1.045244705521047</v>
       </c>
       <c r="N19">
-        <v>1.031615089529847</v>
+        <v>1.025509064594938</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.046114183983103</v>
+        <v>1.044945972432416</v>
       </c>
       <c r="Q19">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R19">
-        <v>1.039726723500035</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038443420210238</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022534407910828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001411732843368</v>
+        <v>0.9996808142974267</v>
       </c>
       <c r="D20">
-        <v>1.025701163022112</v>
+        <v>1.024069356650659</v>
       </c>
       <c r="E20">
-        <v>1.019267693038532</v>
+        <v>1.017850958784527</v>
       </c>
       <c r="F20">
-        <v>1.031659648689724</v>
+        <v>1.030360672206196</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047754503070408</v>
+        <v>1.047088740977573</v>
       </c>
       <c r="J20">
-        <v>1.028888342816858</v>
+        <v>1.027224045565264</v>
       </c>
       <c r="K20">
-        <v>1.039306657286228</v>
+        <v>1.037701779239638</v>
       </c>
       <c r="L20">
-        <v>1.032979997997786</v>
+        <v>1.031587018746779</v>
       </c>
       <c r="M20">
-        <v>1.045167744173035</v>
+        <v>1.043889877698924</v>
       </c>
       <c r="N20">
-        <v>1.030349482278801</v>
+        <v>1.025075918432321</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044360218324341</v>
+        <v>1.043348926881386</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038941888424237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03782366129115</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022311145578945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9967995870698712</v>
+        <v>0.9958535820426357</v>
       </c>
       <c r="D21">
-        <v>1.022706146769033</v>
+        <v>1.021708962182858</v>
       </c>
       <c r="E21">
-        <v>1.015781389438523</v>
+        <v>1.015028258712836</v>
       </c>
       <c r="F21">
-        <v>1.028411517483319</v>
+        <v>1.027674456457254</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046883601455791</v>
+        <v>1.046513794033311</v>
       </c>
       <c r="J21">
-        <v>1.026431728339931</v>
+        <v>1.025525692081042</v>
       </c>
       <c r="K21">
-        <v>1.037269745534022</v>
+        <v>1.036290401934575</v>
       </c>
       <c r="L21">
-        <v>1.030469822235026</v>
+        <v>1.029730402009727</v>
       </c>
       <c r="M21">
-        <v>1.042873901864918</v>
+        <v>1.042149834477367</v>
       </c>
       <c r="N21">
-        <v>1.027889379127538</v>
+        <v>1.024932930720054</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.042504205256883</v>
+        <v>1.041931155828234</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.037504942395947</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03682931059545</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022045352972523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9938633577984722</v>
+        <v>0.9934031926547662</v>
       </c>
       <c r="D22">
-        <v>1.020807487829309</v>
+        <v>1.020207307094861</v>
       </c>
       <c r="E22">
-        <v>1.013578982054445</v>
+        <v>1.01323792157051</v>
       </c>
       <c r="F22">
-        <v>1.026375646769581</v>
+        <v>1.025989319093238</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046325021215493</v>
+        <v>1.046141127937001</v>
       </c>
       <c r="J22">
-        <v>1.024875277304933</v>
+        <v>1.024435681840202</v>
       </c>
       <c r="K22">
-        <v>1.035977714825985</v>
+        <v>1.035388807968363</v>
       </c>
       <c r="L22">
-        <v>1.028886152341244</v>
+        <v>1.028551616389758</v>
       </c>
       <c r="M22">
-        <v>1.041442100208192</v>
+        <v>1.041062925091131</v>
       </c>
       <c r="N22">
-        <v>1.026330717753543</v>
+        <v>1.024793694121538</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.041371032498978</v>
+        <v>1.04107094111655</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.036577969390702</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.036177081632854</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021874538631725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9954149601146992</v>
+        <v>0.994666479385655</v>
       </c>
       <c r="D23">
-        <v>1.021804859392712</v>
+        <v>1.020970564874355</v>
       </c>
       <c r="E23">
-        <v>1.014740374926137</v>
+        <v>1.014154005270276</v>
       </c>
       <c r="F23">
-        <v>1.027448911291449</v>
+        <v>1.026854286251003</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046617066091219</v>
+        <v>1.046322604280433</v>
       </c>
       <c r="J23">
-        <v>1.025693410832051</v>
+        <v>1.02497741132422</v>
       </c>
       <c r="K23">
-        <v>1.036653284061876</v>
+        <v>1.035834265512678</v>
       </c>
       <c r="L23">
-        <v>1.029719186803516</v>
+        <v>1.029143746151255</v>
       </c>
       <c r="M23">
-        <v>1.042194840115812</v>
+        <v>1.041610944417328</v>
       </c>
       <c r="N23">
-        <v>1.027150013124111</v>
+        <v>1.024777598309159</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.04196677470211</v>
+        <v>1.041504661196265</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03704602028</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036481490183293</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021954233214949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001427192988921</v>
+        <v>0.9996967038551324</v>
       </c>
       <c r="D24">
-        <v>1.025689529179798</v>
+        <v>1.024058058826891</v>
       </c>
       <c r="E24">
-        <v>1.019259797878543</v>
+        <v>1.017843498904895</v>
       </c>
       <c r="F24">
-        <v>1.031627024867159</v>
+        <v>1.03032827173949</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.0477370839823</v>
+        <v>1.047071757297272</v>
       </c>
       <c r="J24">
-        <v>1.028870414758198</v>
+        <v>1.027206433915614</v>
       </c>
       <c r="K24">
-        <v>1.039280042874735</v>
+        <v>1.037675461611637</v>
       </c>
       <c r="L24">
-        <v>1.032956926072437</v>
+        <v>1.031564344808758</v>
       </c>
       <c r="M24">
-        <v>1.045120601644464</v>
+        <v>1.04384292963294</v>
       </c>
       <c r="N24">
-        <v>1.030331528760241</v>
+        <v>1.025058112143561</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.044282310396922</v>
+        <v>1.043271123234516</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038895778208438</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037775065461131</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022299775749442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008183553097315</v>
+        <v>1.005822909004302</v>
       </c>
       <c r="D25">
-        <v>1.03007543655311</v>
+        <v>1.027895359899324</v>
       </c>
       <c r="E25">
-        <v>1.024370262549038</v>
+        <v>1.022425980294944</v>
       </c>
       <c r="F25">
-        <v>1.036353680180742</v>
+        <v>1.034595628916635</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048957077958663</v>
+        <v>1.048047980201111</v>
       </c>
       <c r="J25">
-        <v>1.032438612193998</v>
+        <v>1.030155885627712</v>
       </c>
       <c r="K25">
-        <v>1.042224144443121</v>
+        <v>1.040075537272171</v>
       </c>
       <c r="L25">
-        <v>1.036601684364586</v>
+        <v>1.034685858123762</v>
       </c>
       <c r="M25">
-        <v>1.048412696790081</v>
+        <v>1.046679622305249</v>
       </c>
       <c r="N25">
-        <v>1.033904793445678</v>
+        <v>1.026616380657403</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046887764767889</v>
+        <v>1.045516163250408</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.04097454144769</v>
+        <v>1.039468872112756</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022786409957082</v>
       </c>
     </row>
   </sheetData>
